--- a/public/temp/RESIDENTIAL PREMISES.xlsx
+++ b/public/temp/RESIDENTIAL PREMISES.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,256 +420,274 @@
         <v>community</v>
       </c>
       <c r="F1" t="str">
+        <v>electoralAreaId</v>
+      </c>
+      <c r="G1" t="str">
+        <v>electoralArea</v>
+      </c>
+      <c r="H1" t="str">
         <v>ghanaPostGps</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>latitude</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>longitude</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>accuracy</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>geom</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>respondentName</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>respondentPhoneNumber</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>respondentDesignationId</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>deleted</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>createdAt</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>Inspection</v>
       </c>
-      <c r="R1" t="str">
+      <c r="T1" t="str">
         <v>Community</v>
       </c>
-      <c r="S1" t="str">
+      <c r="U1" t="str">
         <v>User</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>13e6e150-d9a6-11ed-9756-33ccf70cfb87</v>
+        <v>1cefbd50-da17-11ed-9de1-f7256c4f6be4</v>
       </c>
       <c r="B2" t="str">
-        <v>13d9e900-d9a6-11ed-939d-530adb7e7918</v>
+        <v>1ce758e0-da17-11ed-8228-b7cd9f85e0a7</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E2" t="str">
-        <v>ANYWAY</v>
-      </c>
-      <c r="F2" t="str">
-        <v>GH-A3242534</v>
-      </c>
-      <c r="I2" t="str">
+        <v>FISH POND</v>
+      </c>
+      <c r="H2" t="str">
+        <v>GH-W3454556</v>
+      </c>
+      <c r="K2" t="str">
         <v>5.0</v>
       </c>
-      <c r="K2" t="str">
-        <v>JK</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
+        <v>vvvv</v>
+      </c>
+      <c r="N2" t="str">
         <v/>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
-        <v>45029.41870015046</v>
-      </c>
-      <c r="P2" s="1">
-        <v>45029.41870015046</v>
+      <c r="Q2" s="1">
+        <v>45029.850294421296</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45029.850294421296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>e8566570-d9a9-11ed-ba78-fff316263d1a</v>
+        <v>49849850-daac-11ed-b7f3-c5b5fb52a6cc</v>
       </c>
       <c r="B3" t="str">
-        <v>e84c7a60-d9a9-11ed-9db0-2fe044731ec4</v>
+        <v>495bdaa0-daac-11ed-ad13-b36c2239c428</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E3" t="str">
-        <v>FISH POND</v>
-      </c>
-      <c r="F3" t="str">
-        <v>GH-W3454556</v>
-      </c>
-      <c r="I3" t="str">
+        <v>PAA SOLO JUNCTION</v>
+      </c>
+      <c r="H3" t="str">
+        <v>GH-76545678</v>
+      </c>
+      <c r="K3" t="str">
         <v>5.0</v>
       </c>
-      <c r="K3" t="str">
-        <v>LK TEYE</v>
-      </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
+        <v>Luki Yu</v>
+      </c>
+      <c r="N3" t="str">
         <v/>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <v>45029.429008356485</v>
-      </c>
-      <c r="P3" s="1">
-        <v>45029.429008356485</v>
+      <c r="Q3" s="1">
+        <v>45030.75295997685</v>
+      </c>
+      <c r="R3" s="1">
+        <v>45030.75295997685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1cefbd50-da17-11ed-9de1-f7256c4f6be4</v>
+        <v>da165480-daac-11ed-bf05-f9874480c871</v>
       </c>
       <c r="B4" t="str">
-        <v>1ce758e0-da17-11ed-8228-b7cd9f85e0a7</v>
+        <v>da0d7ae0-daac-11ed-abfa-61a9dfb0282a</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
-        <v>FISH POND</v>
-      </c>
-      <c r="F4" t="str">
-        <v>GH-W3454556</v>
-      </c>
-      <c r="I4" t="str">
+        <v>PAA SOLO JUNCTION</v>
+      </c>
+      <c r="H4" t="str">
+        <v>GH-76545678</v>
+      </c>
+      <c r="K4" t="str">
         <v>5.0</v>
       </c>
-      <c r="K4" t="str">
-        <v>vvvv</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
+        <v>hum</v>
+      </c>
+      <c r="N4" t="str">
         <v/>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>45029.850294421296</v>
-      </c>
-      <c r="P4" s="1">
-        <v>45029.850294421296</v>
+      <c r="Q4" s="1">
+        <v>45030.75693326389</v>
+      </c>
+      <c r="R4" s="1">
+        <v>45030.75693326389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>49849850-daac-11ed-b7f3-c5b5fb52a6cc</v>
+        <v>13e6e150-d9a6-11ed-9756-33ccf70cfb87</v>
       </c>
       <c r="B5" t="str">
-        <v>495bdaa0-daac-11ed-ad13-b36c2239c428</v>
+        <v>13d9e900-d9a6-11ed-939d-530adb7e7918</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
-        <v>PAA SOLO JUNCTION</v>
-      </c>
-      <c r="F5" t="str">
-        <v>GH-76545678</v>
-      </c>
-      <c r="I5" t="str">
+        <v>ANYWAY</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="str">
+        <v>B</v>
+      </c>
+      <c r="H5" t="str">
+        <v>GH-A3242534</v>
+      </c>
+      <c r="K5" t="str">
         <v>5.0</v>
       </c>
-      <c r="K5" t="str">
-        <v>Luki Yu</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
+        <v>JK</v>
+      </c>
+      <c r="N5" t="str">
         <v/>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>45030.75295997685</v>
-      </c>
-      <c r="P5" s="1">
-        <v>45030.75295997685</v>
+      <c r="Q5" s="1">
+        <v>45029.41870015046</v>
+      </c>
+      <c r="R5" s="1">
+        <v>45029.41870015046</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>da165480-daac-11ed-bf05-f9874480c871</v>
+        <v>e8566570-d9a9-11ed-ba78-fff316263d1a</v>
       </c>
       <c r="B6" t="str">
-        <v>da0d7ae0-daac-11ed-abfa-61a9dfb0282a</v>
+        <v>e84c7a60-d9a9-11ed-9db0-2fe044731ec4</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E6" t="str">
-        <v>PAA SOLO JUNCTION</v>
-      </c>
-      <c r="F6" t="str">
-        <v>GH-76545678</v>
-      </c>
-      <c r="I6" t="str">
+        <v>FISH POND</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6" t="str">
+        <v>C</v>
+      </c>
+      <c r="H6" t="str">
+        <v>GH-W3454556</v>
+      </c>
+      <c r="K6" t="str">
         <v>5.0</v>
       </c>
-      <c r="K6" t="str">
-        <v>hum</v>
-      </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
+        <v>LK TEYE</v>
+      </c>
+      <c r="N6" t="str">
         <v/>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
-        <v>45030.75693326389</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45030.75693326389</v>
+      <c r="Q6" s="1">
+        <v>45029.429008356485</v>
+      </c>
+      <c r="R6" s="1">
+        <v>45029.429008356485</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U6"/>
   </ignoredErrors>
 </worksheet>
 </file>